--- a/Albatross_Raw_Data/Calculated_variables.xlsx
+++ b/Albatross_Raw_Data/Calculated_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Desktop\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2902BBA8-5FED-47E3-B90E-6488B646DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF87997-65AB-46C7-8185-28F6A67934AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,13 +806,39 @@
       <c r="C6" s="3">
         <v>183331</v>
       </c>
+      <c r="D6">
+        <v>1.193E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.431E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.27441</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5.0375999999999997E-2</v>
+      </c>
       <c r="I6" s="3">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="K6" s="3">
+        <v>59.4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4.97</v>
+      </c>
+      <c r="M6" s="3">
+        <v>13.32</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6.47</v>
+      </c>
+      <c r="O6" s="3">
+        <v>17.2</v>
+      </c>
       <c r="P6" s="3" t="s">
         <v>26</v>
       </c>
@@ -830,9 +856,7 @@
       <c r="C7" s="3">
         <v>183330</v>
       </c>
-      <c r="I7" s="3">
-        <v>22</v>
-      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -854,9 +878,7 @@
       <c r="C8" s="3">
         <v>183327</v>
       </c>
-      <c r="I8" s="3">
-        <v>17</v>
-      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -881,13 +903,39 @@
       <c r="C9" s="3">
         <v>120302</v>
       </c>
+      <c r="D9">
+        <v>8.7360000000000007E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.1249999999999999E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.192777</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6.8194000000000005E-2</v>
+      </c>
       <c r="I9" s="3">
-        <v>53</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10.164999999999999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M9" s="3">
+        <v>8.81</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O9" s="3">
+        <v>11.5</v>
+      </c>
       <c r="P9" s="3" t="s">
         <v>33</v>
       </c>
@@ -905,9 +953,7 @@
       <c r="C10" s="3">
         <v>139301</v>
       </c>
-      <c r="I10" s="3">
-        <v>29</v>
-      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -930,9 +976,7 @@
       <c r="C11" s="3">
         <v>135745</v>
       </c>
-      <c r="I11" s="3">
-        <v>12</v>
-      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -957,13 +1001,39 @@
       <c r="C12" s="3">
         <v>137219</v>
       </c>
+      <c r="D12">
+        <v>2.4577000000000002E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.5940000000000002E-4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.3447781000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5.4073799999999998E-2</v>
+      </c>
       <c r="I12" s="3">
-        <v>25</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3.262</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="M12" s="3">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="N12" s="3">
+        <v>4.43</v>
+      </c>
+      <c r="O12" s="3">
+        <v>9.31</v>
+      </c>
       <c r="P12" s="3" t="s">
         <v>40</v>
       </c>
@@ -981,9 +1051,7 @@
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="3">
-        <v>25</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1008,13 +1076,39 @@
       <c r="C14" s="3">
         <v>139655</v>
       </c>
+      <c r="D14">
+        <v>2.3411999999999999E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.712E-3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.980925</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6.7976999999999996E-2</v>
+      </c>
       <c r="I14" s="3">
         <v>36</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="J14" s="3">
+        <v>1.423</v>
+      </c>
+      <c r="K14" s="3">
+        <v>6.16</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="M14" s="3">
+        <v>6.47</v>
+      </c>
+      <c r="N14" s="3">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="O14" s="3">
+        <v>7.68</v>
+      </c>
       <c r="P14" s="3" t="s">
         <v>46</v>
       </c>
@@ -1035,13 +1129,39 @@
       <c r="C15" s="3">
         <v>180120</v>
       </c>
+      <c r="D15">
+        <v>3.1066E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.1130000000000004E-3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.9220799999999998</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.144288</v>
+      </c>
       <c r="I15" s="3">
-        <v>32</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="K15" s="3">
+        <v>9.6660000000000004</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="M15" s="3">
+        <v>7.47</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2.09</v>
+      </c>
+      <c r="O15" s="3">
+        <v>8.17</v>
+      </c>
       <c r="P15" s="3" t="s">
         <v>50</v>
       </c>
@@ -1060,9 +1180,7 @@
       <c r="C16" s="3">
         <v>180127</v>
       </c>
-      <c r="I16" s="3">
-        <v>15</v>
-      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1088,13 +1206,39 @@
       <c r="C17" s="3">
         <v>184189</v>
       </c>
+      <c r="D17">
+        <v>1.2192E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.9840000000000001E-3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3.2123460000000001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7.6904E-2</v>
+      </c>
       <c r="I17" s="3">
         <v>27</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="J17" s="3">
+        <v>2.988</v>
+      </c>
+      <c r="K17" s="3">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5.57</v>
+      </c>
+      <c r="M17" s="3">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="N17" s="3">
+        <v>6.94</v>
+      </c>
+      <c r="O17" s="3">
+        <v>11.97</v>
+      </c>
       <c r="P17" s="3" t="s">
         <v>55</v>
       </c>
@@ -1118,13 +1262,39 @@
       <c r="C18" s="3">
         <v>138978</v>
       </c>
+      <c r="D18">
+        <v>3.1066E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8.1130000000000004E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.9220799999999998</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.144288</v>
+      </c>
       <c r="I18" s="3">
-        <v>38</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.6459999999999999</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>5.47</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="O18" s="3">
+        <v>6.35</v>
+      </c>
       <c r="P18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1143,9 +1313,7 @@
       <c r="C19" s="4">
         <v>138979</v>
       </c>
-      <c r="I19" s="3">
-        <v>28</v>
-      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1170,13 +1338,39 @@
       <c r="C20" s="3">
         <v>138930</v>
       </c>
+      <c r="D20">
+        <v>5.3080000000000002E-3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.3489999999999999E-3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3.2163379999999999</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.14682700000000001</v>
+      </c>
       <c r="I20" s="3">
         <v>42</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="J20" s="3">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="M20" s="3">
+        <v>6.03</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3.52</v>
+      </c>
+      <c r="O20" s="3">
+        <v>6.73</v>
+      </c>
       <c r="P20" s="3" t="s">
         <v>62</v>
       </c>

--- a/Albatross_Raw_Data/Calculated_variables.xlsx
+++ b/Albatross_Raw_Data/Calculated_variables.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Desktop\Albatross_Raw_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF87997-65AB-46C7-8185-28F6A67934AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CDE42-00C0-4526-994E-9120F72655B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -611,7 +622,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1263,16 +1274,16 @@
         <v>138978</v>
       </c>
       <c r="D18">
-        <v>3.1066E-2</v>
+        <v>1.0985999999999999E-2</v>
       </c>
       <c r="E18" s="3">
-        <v>8.1130000000000004E-3</v>
+        <v>3.202E-3</v>
       </c>
       <c r="F18" s="3">
-        <v>2.9220799999999998</v>
+        <v>2.9270740000000002</v>
       </c>
       <c r="G18" s="3">
-        <v>0.144288</v>
+        <v>0.18882599999999999</v>
       </c>
       <c r="I18" s="3">
         <v>66</v>

--- a/Albatross_Raw_Data/Calculated_variables.xlsx
+++ b/Albatross_Raw_Data/Calculated_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CDE42-00C0-4526-994E-9120F72655B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0905B6CD-FAE4-481A-B8B2-742A6AAEC992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,9 +185,6 @@
     <t>250_ft_seine</t>
   </si>
   <si>
-    <t>Ambassis_interruptus</t>
-  </si>
-  <si>
     <t>Palawan_stream_near_Chase_Head_village</t>
   </si>
   <si>
@@ -246,13 +243,16 @@
   </si>
   <si>
     <t>Max_TL</t>
+  </si>
+  <si>
+    <t>Ambassis_interrupta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +309,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,6 +345,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,13 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -656,22 +668,22 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>9</v>
@@ -1132,7 +1144,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3">
         <v>6</v>
@@ -1174,10 +1186,10 @@
         <v>8.17</v>
       </c>
       <c r="P15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>16</v>
@@ -1197,10 +1209,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="P16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>16</v>
@@ -1209,7 +1221,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3">
         <v>7</v>
@@ -1251,10 +1263,10 @@
         <v>11.97</v>
       </c>
       <c r="P17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>16</v>
@@ -1265,7 +1277,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -1273,44 +1285,44 @@
       <c r="C18" s="3">
         <v>138978</v>
       </c>
-      <c r="D18">
-        <v>1.0985999999999999E-2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3.202E-3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2.9270740000000002</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.18882599999999999</v>
+      <c r="D18" s="8">
+        <v>7.9120000000000006E-3</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.284E-3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3.1549749999999999</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.10331</v>
       </c>
       <c r="I18" s="3">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="J18" s="3">
-        <v>0.21099999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K18" s="3">
-        <v>1.6459999999999999</v>
+        <v>1.87</v>
       </c>
       <c r="L18" s="3">
-        <v>1</v>
+        <v>1.76</v>
       </c>
       <c r="M18" s="3">
-        <v>5.47</v>
+        <v>5.52</v>
       </c>
       <c r="N18" s="3">
-        <v>3.29</v>
+        <v>1.89</v>
       </c>
       <c r="O18" s="3">
         <v>6.35</v>
       </c>
       <c r="P18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>16</v>
@@ -1330,7 +1342,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>41</v>
@@ -1340,56 +1352,71 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="B21" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>138930</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5.9858000000000003E-3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>7.4660000000000004E-4</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3.1470501999999998</v>
+      </c>
+      <c r="G22" s="8">
+        <v>7.2609999999999994E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>68</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6.03</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="O22" s="3">
+        <v>6.73</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="B23" s="7">
         <v>9</v>
-      </c>
-      <c r="C20" s="3">
-        <v>138930</v>
-      </c>
-      <c r="D20">
-        <v>5.3080000000000002E-3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.3489999999999999E-3</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3.2163379999999999</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.14682700000000001</v>
-      </c>
-      <c r="I20" s="3">
-        <v>42</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3.25</v>
-      </c>
-      <c r="M20" s="3">
-        <v>6.03</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3.52</v>
-      </c>
-      <c r="O20" s="3">
-        <v>6.73</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Albatross_Raw_Data/Calculated_variables.xlsx
+++ b/Albatross_Raw_Data/Calculated_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0905B6CD-FAE4-481A-B8B2-742A6AAEC992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF4584B-BB77-426D-9073-E8D582572411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="0" windowWidth="17580" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
   <si>
     <t>Species</t>
   </si>
@@ -59,9 +59,6 @@
     <t>SE b</t>
   </si>
   <si>
-    <t>R^2</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -227,25 +224,103 @@
     <t>18_July_08</t>
   </si>
   <si>
-    <t>Min_SL</t>
-  </si>
-  <si>
-    <t>Max_SL</t>
-  </si>
-  <si>
-    <t>Max_Mass</t>
-  </si>
-  <si>
-    <t>Min_Mass</t>
-  </si>
-  <si>
-    <t>Min_TL</t>
-  </si>
-  <si>
-    <t>Max_TL</t>
-  </si>
-  <si>
     <t>Ambassis_interrupta</t>
+  </si>
+  <si>
+    <t>Guijulugan_Negros</t>
+  </si>
+  <si>
+    <t>4_Feb_08</t>
+  </si>
+  <si>
+    <t>Mactan_Island_Cebu</t>
+  </si>
+  <si>
+    <t>25_Mar_09</t>
+  </si>
+  <si>
+    <t>2_Apr_08</t>
+  </si>
+  <si>
+    <t>Cebu_Market</t>
+  </si>
+  <si>
+    <t>4_Apr_08</t>
+  </si>
+  <si>
+    <t>Sacol_Island, NE</t>
+  </si>
+  <si>
+    <t>8_Sep_09</t>
+  </si>
+  <si>
+    <t>Grande_Island_Reef</t>
+  </si>
+  <si>
+    <t>8_Jan_08</t>
+  </si>
+  <si>
+    <t>Man_Mansalay_Mindoro</t>
+  </si>
+  <si>
+    <t>4_Jun_08</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>65 total</t>
+  </si>
+  <si>
+    <t>56 total</t>
+  </si>
+  <si>
+    <t>94 total</t>
+  </si>
+  <si>
+    <t>50 total</t>
+  </si>
+  <si>
+    <t>47 total</t>
+  </si>
+  <si>
+    <t>124 total</t>
+  </si>
+  <si>
+    <t>68 total</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>27 total</t>
+  </si>
+  <si>
+    <t>36 total</t>
+  </si>
+  <si>
+    <t>Min_SL_mm</t>
+  </si>
+  <si>
+    <t>Max_SL_mm</t>
+  </si>
+  <si>
+    <t>Min_TL_mm</t>
+  </si>
+  <si>
+    <t>Max_TL_mm</t>
+  </si>
+  <si>
+    <t>Max_Mass_g</t>
+  </si>
+  <si>
+    <t>Min_Mass_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same </t>
+  </si>
+  <si>
+    <t>same</t>
   </si>
 </sst>
 </file>
@@ -316,12 +391,24 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -336,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,9 +432,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,45 +753,45 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -708,715 +799,1475 @@
       <c r="C2" s="3">
         <v>182970</v>
       </c>
-      <c r="D2">
-        <v>1.873E-2</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2.0609999999999999E-3</v>
-      </c>
-      <c r="F2" s="7">
-        <v>3.0221200000000001</v>
-      </c>
-      <c r="G2" s="7">
-        <v>5.7543999999999998E-2</v>
-      </c>
       <c r="I2" s="3">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3">
-        <v>0.09</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="K2" s="3">
-        <v>9.7799999999999994</v>
+        <v>9.782</v>
       </c>
       <c r="L2" s="3">
-        <v>1.79</v>
+        <v>34.4</v>
       </c>
       <c r="M2" s="3">
-        <v>7.95</v>
-      </c>
-      <c r="N2" s="7">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="O2" s="7">
-        <v>10.1</v>
+        <v>79.5</v>
+      </c>
+      <c r="N2" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="O2" s="3">
+        <v>101</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:19">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>182726</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="I3" s="3">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="L3" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>34.9</v>
+      </c>
+      <c r="N3" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>42.2</v>
+      </c>
       <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="R3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>182982</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="L4" s="3">
+        <v>26.4</v>
+      </c>
+      <c r="M4" s="3">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="N4" s="3">
+        <v>31.8</v>
+      </c>
+      <c r="O4" s="3">
+        <v>47.4</v>
+      </c>
       <c r="P4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>182979</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="I5" s="3">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.7909999999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M5" s="3">
+        <v>53.4</v>
+      </c>
+      <c r="N5" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="O5" s="3">
+        <v>64.2</v>
+      </c>
       <c r="P5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>182965</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>183331</v>
-      </c>
-      <c r="D6">
-        <v>1.193E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.431E-3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.27441</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5.0375999999999997E-2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>56</v>
-      </c>
       <c r="J6" s="3">
-        <v>2.7639999999999998</v>
+        <v>24.39</v>
       </c>
       <c r="K6" s="3">
-        <v>59.4</v>
+        <v>35.478999999999999</v>
       </c>
       <c r="L6" s="3">
-        <v>4.97</v>
+        <v>109.9</v>
       </c>
       <c r="M6" s="3">
-        <v>13.32</v>
+        <v>120.5</v>
       </c>
       <c r="N6" s="3">
-        <v>6.47</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="O6" s="3">
-        <v>17.2</v>
+        <v>150</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:19">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>183330</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+        <v>182938</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>35.24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="3">
+        <v>114.9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="3">
+        <v>145.1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
       <c r="P7" s="3" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:19">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>183327</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>195492</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="3">
+        <v>122.5</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="3">
+        <v>147.6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
       <c r="P8" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>120302</v>
-      </c>
-      <c r="D9">
-        <v>8.7360000000000007E-3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.1249999999999999E-3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.192777</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6.8194000000000005E-2</v>
-      </c>
-      <c r="I9" s="3">
+        <v>195476</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>143.55000000000001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="3">
+        <v>186</v>
+      </c>
+      <c r="M9" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="3">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10.164999999999999</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="M9" s="3">
-        <v>8.81</v>
-      </c>
       <c r="N9" s="3">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="O9" s="3">
-        <v>11.5</v>
+        <v>233</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="8" customFormat="1">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.873E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2.0609999999999999E-3</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3.0221200000000001</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5.7543999999999998E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K10" s="9">
+        <v>143.55000000000001</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1.79</v>
+      </c>
+      <c r="M10" s="9">
+        <v>186</v>
+      </c>
+      <c r="N10" s="10">
+        <v>20.5</v>
+      </c>
+      <c r="O10" s="10">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>183331</v>
+      </c>
+      <c r="I11" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>139301</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="P10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>135745</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="J11" s="3">
+        <v>3.681</v>
+      </c>
+      <c r="K11">
+        <v>23.433</v>
+      </c>
+      <c r="L11" s="3">
+        <v>56.3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>105.1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>72.5</v>
+      </c>
+      <c r="O11" s="7">
+        <v>132.9</v>
+      </c>
       <c r="P11" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>137219</v>
-      </c>
-      <c r="D12">
-        <v>2.4577000000000002E-3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.5940000000000002E-4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.3447781000000001</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5.4073799999999998E-2</v>
+        <v>183330</v>
       </c>
       <c r="I12" s="3">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J12" s="3">
-        <v>0.25900000000000001</v>
+        <v>2.7639999999999998</v>
       </c>
       <c r="K12" s="3">
-        <v>3.262</v>
+        <v>29.149000000000001</v>
       </c>
       <c r="L12" s="3">
-        <v>3.95</v>
+        <v>49.7</v>
       </c>
       <c r="M12" s="3">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="N12" s="3">
-        <v>4.43</v>
-      </c>
-      <c r="O12" s="3">
-        <v>9.31</v>
+        <v>109.3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>64.7</v>
+      </c>
+      <c r="O12" s="7">
+        <v>136.69999999999999</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:19">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B13" s="3">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>183327</v>
+      </c>
+      <c r="I13" s="3">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>59.4</v>
+      </c>
+      <c r="L13" s="3">
+        <v>57</v>
+      </c>
+      <c r="M13" s="3">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="N13" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="O13" s="7">
+        <v>172</v>
+      </c>
       <c r="P13" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
-        <v>139655</v>
-      </c>
-      <c r="D14">
-        <v>2.3411999999999999E-2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2.712E-3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2.980925</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6.7976999999999996E-2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>36</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1.423</v>
-      </c>
-      <c r="K14" s="3">
-        <v>6.16</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3.82</v>
-      </c>
-      <c r="M14" s="3">
-        <v>6.47</v>
-      </c>
-      <c r="N14" s="3">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="O14" s="3">
-        <v>7.68</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="8" customFormat="1">
+      <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.193E-2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.431E-3</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3.27441</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5.0375999999999997E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="K14" s="9">
+        <v>59.4</v>
+      </c>
+      <c r="L14" s="9">
+        <v>49.7</v>
+      </c>
+      <c r="M14" s="9">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="N14" s="9">
+        <v>64.7</v>
+      </c>
+      <c r="O14" s="9">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>180120</v>
-      </c>
-      <c r="D15">
-        <v>3.1066E-2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8.1130000000000004E-3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2.9220799999999998</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.144288</v>
+        <v>120302</v>
       </c>
       <c r="I15" s="3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J15" s="3">
-        <v>0.111</v>
-      </c>
-      <c r="K15" s="3">
-        <v>9.6660000000000004</v>
+        <v>0.109</v>
+      </c>
+      <c r="K15">
+        <v>10.164999999999999</v>
       </c>
       <c r="L15" s="3">
-        <v>1.78</v>
+        <v>21.5</v>
       </c>
       <c r="M15" s="3">
-        <v>7.47</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2.09</v>
-      </c>
-      <c r="O15" s="3">
-        <v>8.17</v>
+        <v>88.1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="O15" s="7">
+        <v>115</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>180127</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+        <v>139301</v>
+      </c>
+      <c r="I16" s="3">
+        <v>30</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="L16" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>50.7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>23.2</v>
+      </c>
+      <c r="O16" s="7">
+        <v>64.099999999999994</v>
+      </c>
       <c r="P16" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>184189</v>
-      </c>
-      <c r="D17">
-        <v>1.2192E-2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1.9840000000000001E-3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3.2123460000000001</v>
-      </c>
-      <c r="G17" s="3">
-        <v>7.6904E-2</v>
+        <v>135745</v>
       </c>
       <c r="I17" s="3">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J17" s="3">
-        <v>2.988</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="K17" s="3">
-        <v>17.260000000000002</v>
+        <v>2.552</v>
       </c>
       <c r="L17" s="3">
-        <v>5.57</v>
+        <v>29.7</v>
       </c>
       <c r="M17" s="3">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="N17" s="3">
-        <v>6.94</v>
-      </c>
-      <c r="O17" s="3">
-        <v>11.97</v>
+        <v>60.2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="O17" s="7">
+        <v>75.900000000000006</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="3">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3">
-        <v>138978</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="8" customFormat="1">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D18" s="8">
-        <v>7.9120000000000006E-3</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1.284E-3</v>
-      </c>
-      <c r="F18" s="8">
-        <v>3.1549749999999999</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.10331</v>
-      </c>
-      <c r="I18" s="3">
-        <v>124</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1.76</v>
-      </c>
-      <c r="M18" s="3">
-        <v>5.52</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1.89</v>
-      </c>
-      <c r="O18" s="3">
-        <v>6.35</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>16</v>
+        <v>8.7360000000000007E-3</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.1249999999999999E-3</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3.192777</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6.8194000000000005E-2</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K18" s="9">
+        <v>10.164999999999999</v>
+      </c>
+      <c r="L18" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="M18" s="9">
+        <v>88.1</v>
+      </c>
+      <c r="N18" s="9">
+        <v>23.2</v>
+      </c>
+      <c r="O18" s="9">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B19" s="3">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4">
-        <v>138979</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>137219</v>
+      </c>
+      <c r="I19" s="3">
+        <v>25</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.995</v>
+      </c>
+      <c r="L19" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="M19" s="3">
+        <v>57.1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="O19" s="7">
+        <v>65.900000000000006</v>
+      </c>
       <c r="P19" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="B20" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="B21" s="7">
-        <v>8</v>
+      <c r="I20" s="3">
+        <v>25</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3.262</v>
+      </c>
+      <c r="L20" s="3">
+        <v>42.4</v>
+      </c>
+      <c r="M20" s="3">
+        <v>84.7</v>
+      </c>
+      <c r="N20" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>93.1</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="8" customFormat="1">
+      <c r="A21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2.4577000000000002E-3</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.5940000000000002E-4</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.3447781000000001</v>
+      </c>
+      <c r="G21" s="9">
+        <v>5.4073799999999998E-2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>7.1080000000000004E-2</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K21" s="9">
+        <v>3.262</v>
+      </c>
+      <c r="L21" s="9">
+        <v>39.5</v>
+      </c>
+      <c r="M21" s="9">
+        <v>84.7</v>
+      </c>
+      <c r="N21" s="9">
+        <v>44.3</v>
+      </c>
+      <c r="O21" s="9">
+        <v>93.1</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>139655</v>
+      </c>
+      <c r="I22" s="3">
+        <v>36</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1.423</v>
+      </c>
+      <c r="K22" s="12">
+        <v>6.16</v>
+      </c>
+      <c r="L22" s="12">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M22" s="12">
+        <v>64.7</v>
+      </c>
+      <c r="N22" s="12">
+        <v>47.7</v>
+      </c>
+      <c r="O22" s="12">
+        <v>76.8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="8" customFormat="1">
+      <c r="A23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2.3411999999999999E-2</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.712E-3</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2.980925</v>
+      </c>
+      <c r="G23" s="9">
+        <v>6.7976999999999996E-2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="9">
+        <v>1.423</v>
+      </c>
+      <c r="K23" s="9">
+        <v>6.16</v>
+      </c>
+      <c r="L23" s="9">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M23" s="9">
+        <v>64.7</v>
+      </c>
+      <c r="N23" s="9">
+        <v>47.7</v>
+      </c>
+      <c r="O23" s="9">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>180120</v>
+      </c>
+      <c r="I24" s="3">
+        <v>32</v>
+      </c>
+      <c r="J24">
+        <v>0.111</v>
+      </c>
+      <c r="K24">
+        <v>7.1029999999999998</v>
+      </c>
+      <c r="L24">
+        <v>17.8</v>
+      </c>
+      <c r="M24">
+        <v>62.5</v>
+      </c>
+      <c r="N24">
+        <v>20.9</v>
+      </c>
+      <c r="O24">
+        <v>80</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>180127</v>
+      </c>
+      <c r="I25" s="3">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="K25" s="3">
+        <v>9.6660000000000004</v>
+      </c>
+      <c r="L25" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="M25" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="N25" s="3">
+        <v>57.8</v>
+      </c>
+      <c r="O25" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" s="8" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="9">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8">
+        <v>3.1066E-2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>8.1130000000000004E-3</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2.9220799999999998</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.144288</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.623</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.111</v>
+      </c>
+      <c r="K26" s="9">
+        <v>9.6660000000000004</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1.78</v>
+      </c>
+      <c r="M26" s="9">
+        <v>74.7</v>
+      </c>
+      <c r="N26" s="9">
+        <v>2.09</v>
+      </c>
+      <c r="O26" s="9">
+        <v>8.17</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>184189</v>
+      </c>
+      <c r="I27" s="3">
+        <v>27</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="K27" s="12">
+        <v>1.726</v>
+      </c>
+      <c r="L27" s="12">
+        <v>55.7</v>
+      </c>
+      <c r="M27" s="12">
+        <v>95.4</v>
+      </c>
+      <c r="N27" s="12">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="O27" s="12">
+        <v>119.7</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="8" customFormat="1">
+      <c r="A28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="9">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1.2192E-2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1.9840000000000001E-3</v>
+      </c>
+      <c r="F28" s="9">
+        <v>3.2123460000000001</v>
+      </c>
+      <c r="G28" s="9">
+        <v>7.6904E-2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.4723</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1.726</v>
+      </c>
+      <c r="L28" s="9">
+        <v>55.7</v>
+      </c>
+      <c r="M28" s="9">
+        <v>95.4</v>
+      </c>
+      <c r="N28" s="9">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="O28" s="9">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>138978</v>
+      </c>
+      <c r="I29" s="3">
+        <v>38</v>
+      </c>
+      <c r="J29">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="K29">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="L29">
+        <v>29.6</v>
+      </c>
+      <c r="M29">
+        <v>54.7</v>
+      </c>
+      <c r="N29">
+        <v>32.9</v>
+      </c>
+      <c r="O29">
+        <v>63.5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>138979</v>
+      </c>
+      <c r="I30" s="3">
+        <v>28</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1.6459999999999999</v>
+      </c>
+      <c r="L30" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="M30" s="3">
+        <v>52.3</v>
+      </c>
+      <c r="N30" s="3">
+        <v>38.1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>59</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="7">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>150772</v>
+      </c>
+      <c r="I31" s="3">
+        <v>26</v>
+      </c>
+      <c r="J31">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K31">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L31">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M31">
+        <v>23.2</v>
+      </c>
+      <c r="N31">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O31">
+        <v>27.9</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="7">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>138969</v>
+      </c>
+      <c r="I32" s="3">
+        <v>32</v>
+      </c>
+      <c r="J32">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="K32">
+        <v>1.87</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>55.2</v>
+      </c>
+      <c r="N32">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="O32">
+        <v>62</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="8" customFormat="1">
+      <c r="A33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="10">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="11">
+        <v>7.9120000000000006E-3</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1.284E-3</v>
+      </c>
+      <c r="F33" s="11">
+        <v>3.1549749999999999</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.10331</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.1009</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1.87</v>
+      </c>
+      <c r="L33" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M33" s="9">
+        <v>55.2</v>
+      </c>
+      <c r="N33" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O33" s="9">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3">
+        <v>138930</v>
+      </c>
+      <c r="I34" s="3">
+        <v>42</v>
+      </c>
+      <c r="J34">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K34">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="L34">
+        <v>32.5</v>
+      </c>
+      <c r="M34">
+        <v>60.3</v>
+      </c>
+      <c r="N34">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="O34">
+        <v>67.3</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="3">
+      <c r="Q34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="7">
         <v>9</v>
       </c>
-      <c r="C22" s="3">
-        <v>138930</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C35" s="3">
+        <v>120834</v>
+      </c>
+      <c r="I35" s="3">
+        <v>26</v>
+      </c>
+      <c r="J35">
+        <v>0.08</v>
+      </c>
+      <c r="K35">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="L35">
+        <v>23.1</v>
+      </c>
+      <c r="M35">
+        <v>41.1</v>
+      </c>
+      <c r="N35">
+        <v>25</v>
+      </c>
+      <c r="O35">
+        <v>44.2</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="8" customFormat="1">
+      <c r="A36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="10">
+        <v>9</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="11">
         <v>5.9858000000000003E-3</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E36" s="11">
         <v>7.4660000000000004E-4</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F36" s="11">
         <v>3.1470501999999998</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G36" s="11">
         <v>7.2609999999999994E-2</v>
       </c>
-      <c r="I22" s="3">
-        <v>68</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="H36" s="8">
+        <v>6.4269999999999994E-2</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="9">
         <v>0.08</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K36" s="9">
         <v>1.7490000000000001</v>
       </c>
-      <c r="L22" s="3">
-        <v>2.31</v>
-      </c>
-      <c r="M22" s="3">
-        <v>6.03</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="O22" s="3">
-        <v>6.73</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="B23" s="7">
-        <v>9</v>
+      <c r="L36" s="9">
+        <v>23.1</v>
+      </c>
+      <c r="M36" s="9">
+        <v>60.3</v>
+      </c>
+      <c r="N36" s="9">
+        <v>25</v>
+      </c>
+      <c r="O36" s="9">
+        <v>67.3</v>
       </c>
     </row>
   </sheetData>

--- a/Albatross_Raw_Data/Calculated_variables.xlsx
+++ b/Albatross_Raw_Data/Calculated_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF4584B-BB77-426D-9073-E8D582572411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7330203-FEEE-492B-977C-F1225E16B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="0" windowWidth="17580" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>Species</t>
   </si>
@@ -321,6 +321,84 @@
   </si>
   <si>
     <t>same</t>
+  </si>
+  <si>
+    <t>Hypoatherina_temminckii</t>
+  </si>
+  <si>
+    <t>Ticao_Island_San_Miguel_Harbor</t>
+  </si>
+  <si>
+    <t>21_Apr_08</t>
+  </si>
+  <si>
+    <t>Port_Busan_Busuanga_Island</t>
+  </si>
+  <si>
+    <t>17_Dec_08</t>
+  </si>
+  <si>
+    <t>unkown</t>
+  </si>
+  <si>
+    <t>Bolinao_Bay_Luzon</t>
+  </si>
+  <si>
+    <t>10_May_09</t>
+  </si>
+  <si>
+    <t>Busin_Harbor_Burias_Island</t>
+  </si>
+  <si>
+    <t>22_Apr_08</t>
+  </si>
+  <si>
+    <t>Atulayan_Bay_Luzon_Island</t>
+  </si>
+  <si>
+    <t>17_Jun_09</t>
+  </si>
+  <si>
+    <t>Parang_Mindanao</t>
+  </si>
+  <si>
+    <t>23_May_08</t>
+  </si>
+  <si>
+    <t>Taeniamia_fucata</t>
+  </si>
+  <si>
+    <t>W_Coast_of_Palawan_Endeavor_Strait</t>
+  </si>
+  <si>
+    <t>23_Dec_08</t>
+  </si>
+  <si>
+    <t>Dynamite</t>
+  </si>
+  <si>
+    <t>Rita_Island_Palawan</t>
+  </si>
+  <si>
+    <t>29_Dec_08</t>
+  </si>
+  <si>
+    <t>Linacapan_Island_Malcochin_Harbor</t>
+  </si>
+  <si>
+    <t>18_Dec_08</t>
+  </si>
+  <si>
+    <t>11 total</t>
+  </si>
+  <si>
+    <t>48 total</t>
+  </si>
+  <si>
+    <t>125 total</t>
+  </si>
+  <si>
+    <t>Doboatherina_duodecimalis</t>
   </si>
 </sst>
 </file>
@@ -391,7 +469,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +488,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -423,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -439,6 +523,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2058,6 +2147,9 @@
       <c r="Q31" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="R31" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="3" t="s">
@@ -2096,6 +2188,9 @@
       <c r="Q32" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="R32" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:18" s="8" customFormat="1">
       <c r="A33" s="9" t="s">
@@ -2222,6 +2317,9 @@
       <c r="Q35" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="R35" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:18" s="8" customFormat="1">
       <c r="A36" s="9" t="s">
@@ -2268,6 +2366,512 @@
       </c>
       <c r="O36" s="9">
         <v>67.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="7">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3">
+        <v>136752</v>
+      </c>
+      <c r="I37" s="3">
+        <v>23</v>
+      </c>
+      <c r="J37">
+        <v>1.288</v>
+      </c>
+      <c r="K37">
+        <v>7.2430000000000003</v>
+      </c>
+      <c r="L37">
+        <v>52</v>
+      </c>
+      <c r="M37">
+        <v>93.7</v>
+      </c>
+      <c r="N37">
+        <v>58</v>
+      </c>
+      <c r="O37">
+        <v>103.7</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="7">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3">
+        <v>136726</v>
+      </c>
+      <c r="I38" s="3">
+        <v>25</v>
+      </c>
+      <c r="J38">
+        <v>0.442</v>
+      </c>
+      <c r="K38">
+        <v>7.1440000000000001</v>
+      </c>
+      <c r="L38">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M38">
+        <v>72.2</v>
+      </c>
+      <c r="N38">
+        <v>39.9</v>
+      </c>
+      <c r="O38">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="15" customFormat="1">
+      <c r="A39" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="14">
+        <v>10</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="15">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="K39" s="15">
+        <v>7.2430000000000003</v>
+      </c>
+      <c r="L39" s="15">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M39" s="15">
+        <v>93.7</v>
+      </c>
+      <c r="N39" s="15">
+        <v>39.9</v>
+      </c>
+      <c r="O39" s="15">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="7">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
+        <v>149423</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2.548</v>
+      </c>
+      <c r="K40" t="s">
+        <v>94</v>
+      </c>
+      <c r="L40">
+        <v>50.2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N40">
+        <v>62</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="R40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="7">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3">
+        <v>149427</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="K41">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L41">
+        <v>30.9</v>
+      </c>
+      <c r="M41">
+        <v>35</v>
+      </c>
+      <c r="N41">
+        <v>39.5</v>
+      </c>
+      <c r="O41">
+        <v>44.3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="7">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3">
+        <v>149429</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K42">
+        <v>0.224</v>
+      </c>
+      <c r="L42">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>21.7</v>
+      </c>
+      <c r="O42">
+        <v>27.8</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="15" customFormat="1">
+      <c r="A43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="15">
+        <v>11</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" s="15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K43" s="15">
+        <v>2.548</v>
+      </c>
+      <c r="L43" s="15">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M43" s="15">
+        <v>50.2</v>
+      </c>
+      <c r="N43" s="15">
+        <v>21.7</v>
+      </c>
+      <c r="O43" s="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="7">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3">
+        <v>136831</v>
+      </c>
+      <c r="I44">
+        <v>37</v>
+      </c>
+      <c r="J44">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K44">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>54.4</v>
+      </c>
+      <c r="N44">
+        <v>25.9</v>
+      </c>
+      <c r="O44">
+        <v>64.5</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="17" customFormat="1">
+      <c r="A45" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="16">
+        <v>12</v>
+      </c>
+      <c r="C45" s="12">
+        <v>136846</v>
+      </c>
+      <c r="I45" s="17">
+        <v>4</v>
+      </c>
+      <c r="J45" s="17">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="K45" s="17">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="L45" s="17">
+        <v>43.8</v>
+      </c>
+      <c r="M45" s="17">
+        <v>49.1</v>
+      </c>
+      <c r="N45" s="17">
+        <v>51</v>
+      </c>
+      <c r="O45" s="17">
+        <v>58.3</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="R45" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="7">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3">
+        <v>136827</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K46">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="L46">
+        <v>22.9</v>
+      </c>
+      <c r="M46">
+        <v>45</v>
+      </c>
+      <c r="N46">
+        <v>24.9</v>
+      </c>
+      <c r="O46">
+        <v>52.2</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="7">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3">
+        <v>136851</v>
+      </c>
+      <c r="I47">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>0.376</v>
+      </c>
+      <c r="K47">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="L47">
+        <v>30.4</v>
+      </c>
+      <c r="M47">
+        <v>51</v>
+      </c>
+      <c r="N47">
+        <v>37.1</v>
+      </c>
+      <c r="O47">
+        <v>60.1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>102</v>
+      </c>
+      <c r="R47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="7">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3">
+        <v>136813</v>
+      </c>
+      <c r="I48">
+        <v>61</v>
+      </c>
+      <c r="J48">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="K48">
+        <v>4.6710000000000003</v>
+      </c>
+      <c r="L48">
+        <v>39.4</v>
+      </c>
+      <c r="M48">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="N48">
+        <v>44.7</v>
+      </c>
+      <c r="O48">
+        <v>83.6</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="15" customFormat="1">
+      <c r="A49" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="14">
+        <v>12</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J49" s="15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K49" s="15">
+        <v>4.6710000000000003</v>
+      </c>
+      <c r="L49" s="15">
+        <v>22.9</v>
+      </c>
+      <c r="M49" s="15">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="N49" s="15">
+        <v>24.9</v>
+      </c>
+      <c r="O49" s="15">
+        <v>83.6</v>
       </c>
     </row>
   </sheetData>

--- a/Albatross_Raw_Data/Calculated_variables.xlsx
+++ b/Albatross_Raw_Data/Calculated_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7330203-FEEE-492B-977C-F1225E16B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9513E9-D112-4961-B85B-A95E0D547821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="2220" windowWidth="16515" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="125">
   <si>
     <t>Species</t>
   </si>
@@ -50,15 +50,9 @@
     <t>a</t>
   </si>
   <si>
-    <t>SE a</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
-    <t>SE b</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -399,13 +393,31 @@
   </si>
   <si>
     <t>Doboatherina_duodecimalis</t>
+  </si>
+  <si>
+    <t>Atherinomorus_endrachtensis</t>
+  </si>
+  <si>
+    <t>SE_b</t>
+  </si>
+  <si>
+    <t>SE_a</t>
+  </si>
+  <si>
+    <t>Relative_condition_factor_Kn</t>
+  </si>
+  <si>
+    <t>Fulton_condition_factor_K</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +480,12 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -507,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -528,6 +546,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,7 +840,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,54 +854,63 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -888,40 +918,40 @@
       <c r="C2" s="3">
         <v>182970</v>
       </c>
-      <c r="I2" s="3">
+      <c r="L2" s="3">
         <v>21</v>
       </c>
-      <c r="J2" s="3">
+      <c r="M2" s="3">
         <v>0.76700000000000002</v>
       </c>
-      <c r="K2" s="3">
+      <c r="N2" s="3">
         <v>9.782</v>
       </c>
-      <c r="L2" s="3">
+      <c r="O2" s="3">
         <v>34.4</v>
       </c>
-      <c r="M2" s="3">
+      <c r="P2" s="3">
         <v>79.5</v>
       </c>
-      <c r="N2" s="3">
+      <c r="Q2" s="3">
         <v>42.3</v>
       </c>
-      <c r="O2" s="3">
+      <c r="R2" s="3">
         <v>101</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="S2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -929,40 +959,40 @@
       <c r="C3" s="3">
         <v>182726</v>
       </c>
-      <c r="I3" s="3">
+      <c r="L3" s="3">
         <v>12</v>
       </c>
-      <c r="J3" s="3">
+      <c r="M3" s="3">
         <v>0.151</v>
       </c>
-      <c r="K3" s="3">
+      <c r="N3" s="3">
         <v>0.51700000000000002</v>
       </c>
-      <c r="L3" s="3">
+      <c r="O3" s="3">
         <v>22.1</v>
       </c>
-      <c r="M3" s="3">
+      <c r="P3" s="3">
         <v>34.9</v>
       </c>
-      <c r="N3" s="3">
+      <c r="Q3" s="3">
         <v>26.1</v>
       </c>
-      <c r="O3" s="3">
+      <c r="R3" s="3">
         <v>42.2</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="U3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -970,40 +1000,40 @@
       <c r="C4" s="3">
         <v>182982</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="M4" s="3">
         <v>0.27100000000000002</v>
       </c>
-      <c r="K4" s="3">
+      <c r="N4" s="3">
         <v>0.76300000000000001</v>
       </c>
-      <c r="L4" s="3">
+      <c r="O4" s="3">
         <v>26.4</v>
       </c>
-      <c r="M4" s="3">
+      <c r="P4" s="3">
         <v>38.799999999999997</v>
       </c>
-      <c r="N4" s="3">
+      <c r="Q4" s="3">
         <v>31.8</v>
       </c>
-      <c r="O4" s="3">
+      <c r="R4" s="3">
         <v>47.4</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1011,40 +1041,40 @@
       <c r="C5" s="3">
         <v>182979</v>
       </c>
-      <c r="I5" s="3">
+      <c r="L5" s="3">
         <v>19</v>
       </c>
-      <c r="J5" s="3">
+      <c r="M5" s="3">
         <v>0.09</v>
       </c>
-      <c r="K5" s="3">
+      <c r="N5" s="3">
         <v>2.7909999999999999</v>
       </c>
-      <c r="L5" s="3">
+      <c r="O5" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="M5" s="3">
+      <c r="P5" s="3">
         <v>53.4</v>
       </c>
-      <c r="N5" s="3">
+      <c r="Q5" s="3">
         <v>20.5</v>
       </c>
-      <c r="O5" s="3">
+      <c r="R5" s="3">
         <v>64.2</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="S5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1052,40 +1082,40 @@
       <c r="C6" s="3">
         <v>182965</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="M6" s="3">
         <v>24.39</v>
       </c>
-      <c r="K6" s="3">
+      <c r="N6" s="3">
         <v>35.478999999999999</v>
       </c>
-      <c r="L6" s="3">
+      <c r="O6" s="3">
         <v>109.9</v>
       </c>
-      <c r="M6" s="3">
+      <c r="P6" s="3">
         <v>120.5</v>
       </c>
-      <c r="N6" s="3">
+      <c r="Q6" s="3">
         <v>135.80000000000001</v>
       </c>
-      <c r="O6" s="3">
+      <c r="R6" s="3">
         <v>150</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="S6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1093,40 +1123,40 @@
       <c r="C7" s="3">
         <v>182938</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="J7" s="3">
+      <c r="M7" s="3">
         <v>35.24</v>
       </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="3">
         <v>114.9</v>
       </c>
-      <c r="M7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="P7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="3">
         <v>145.1</v>
       </c>
-      <c r="O7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="R7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>92</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1134,40 +1164,40 @@
       <c r="C8" s="3">
         <v>195492</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>34.6</v>
       </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="3">
         <v>122.5</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="3">
         <v>147.6</v>
       </c>
-      <c r="O8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="R8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>92</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -1175,46 +1205,46 @@
       <c r="C9" s="3">
         <v>195476</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>143.55000000000001</v>
       </c>
-      <c r="K9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="3">
         <v>186</v>
       </c>
-      <c r="M9" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="P9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="3">
         <v>233</v>
       </c>
-      <c r="O9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="R9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="8" customFormat="1">
+        <v>92</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="8" customFormat="1">
       <c r="A10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="8">
         <v>1.873E-2</v>
@@ -1231,31 +1261,37 @@
       <c r="H10" s="8">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
+        <v>0.89931419999999995</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.7365409999999999</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="9">
         <v>0.09</v>
       </c>
-      <c r="K10" s="9">
+      <c r="N10" s="9">
         <v>143.55000000000001</v>
       </c>
-      <c r="L10" s="9">
+      <c r="O10" s="9">
         <v>1.79</v>
       </c>
-      <c r="M10" s="9">
+      <c r="P10" s="9">
         <v>186</v>
       </c>
-      <c r="N10" s="10">
+      <c r="Q10" s="10">
         <v>20.5</v>
       </c>
-      <c r="O10" s="10">
+      <c r="R10" s="10">
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -1263,40 +1299,40 @@
       <c r="C11" s="3">
         <v>183331</v>
       </c>
-      <c r="I11" s="3">
+      <c r="L11" s="3">
         <v>16</v>
       </c>
-      <c r="J11" s="3">
+      <c r="M11" s="3">
         <v>3.681</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>23.433</v>
       </c>
-      <c r="L11" s="3">
+      <c r="O11" s="3">
         <v>56.3</v>
       </c>
-      <c r="M11" s="3">
+      <c r="P11" s="3">
         <v>105.1</v>
       </c>
-      <c r="N11" s="7">
+      <c r="Q11" s="7">
         <v>72.5</v>
       </c>
-      <c r="O11" s="7">
+      <c r="R11" s="7">
         <v>132.9</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="S11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -1304,40 +1340,40 @@
       <c r="C12" s="3">
         <v>183330</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>23</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>2.7639999999999998</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>29.149000000000001</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>49.7</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>109.3</v>
       </c>
-      <c r="N12" s="7">
+      <c r="Q12" s="7">
         <v>64.7</v>
       </c>
-      <c r="O12" s="7">
+      <c r="R12" s="7">
         <v>136.69999999999999</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="S12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -1345,46 +1381,46 @@
       <c r="C13" s="3">
         <v>183327</v>
       </c>
-      <c r="I13" s="3">
+      <c r="L13" s="3">
         <v>17</v>
       </c>
-      <c r="J13" s="3">
+      <c r="M13" s="3">
         <v>3.15</v>
       </c>
-      <c r="K13" s="3">
+      <c r="N13" s="3">
         <v>59.4</v>
       </c>
-      <c r="L13" s="3">
+      <c r="O13" s="3">
         <v>57</v>
       </c>
-      <c r="M13" s="3">
+      <c r="P13" s="3">
         <v>133.19999999999999</v>
       </c>
-      <c r="N13" s="7">
+      <c r="Q13" s="7">
         <v>72.7</v>
       </c>
-      <c r="O13" s="7">
+      <c r="R13" s="7">
         <v>172</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="8" customFormat="1">
+      <c r="S13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="8" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="8">
         <v>1.193E-2</v>
@@ -1401,31 +1437,37 @@
       <c r="H14" s="8">
         <v>1.1279999999999999</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
+        <v>1.0302819999999999</v>
+      </c>
+      <c r="K14" s="8">
+        <v>2.162706</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="9">
         <v>2.7639999999999998</v>
       </c>
-      <c r="K14" s="9">
+      <c r="N14" s="9">
         <v>59.4</v>
       </c>
-      <c r="L14" s="9">
+      <c r="O14" s="9">
         <v>49.7</v>
       </c>
-      <c r="M14" s="9">
+      <c r="P14" s="9">
         <v>133.19999999999999</v>
       </c>
-      <c r="N14" s="9">
+      <c r="Q14" s="9">
         <v>64.7</v>
       </c>
-      <c r="O14" s="9">
+      <c r="R14" s="9">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:22">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -1433,40 +1475,40 @@
       <c r="C15" s="3">
         <v>120302</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>52</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>0.109</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>10.164999999999999</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>21.5</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>88.1</v>
       </c>
-      <c r="N15" s="7">
+      <c r="Q15" s="7">
         <v>25.7</v>
       </c>
-      <c r="O15" s="7">
+      <c r="R15" s="7">
         <v>115</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="S15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
@@ -1474,40 +1516,40 @@
       <c r="C16" s="3">
         <v>139301</v>
       </c>
-      <c r="I16" s="3">
+      <c r="L16" s="3">
         <v>30</v>
       </c>
-      <c r="J16" s="3">
+      <c r="M16" s="3">
         <v>0.10299999999999999</v>
       </c>
-      <c r="K16" s="3">
+      <c r="N16" s="3">
         <v>1.4</v>
       </c>
-      <c r="L16" s="3">
+      <c r="O16" s="3">
         <v>20.5</v>
       </c>
-      <c r="M16" s="3">
+      <c r="P16" s="3">
         <v>50.7</v>
       </c>
-      <c r="N16" s="7">
+      <c r="Q16" s="7">
         <v>23.2</v>
       </c>
-      <c r="O16" s="7">
+      <c r="R16" s="7">
         <v>64.099999999999994</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="S16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
@@ -1515,46 +1557,46 @@
       <c r="C17" s="3">
         <v>135745</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>12</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>0.25600000000000001</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>2.552</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>29.7</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>60.2</v>
       </c>
-      <c r="N17" s="7">
+      <c r="Q17" s="7">
         <v>35.5</v>
       </c>
-      <c r="O17" s="7">
+      <c r="R17" s="7">
         <v>75.900000000000006</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="8" customFormat="1">
+      <c r="S17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="8" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="9">
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="8">
         <v>8.7360000000000007E-3</v>
@@ -1571,31 +1613,37 @@
       <c r="H18" s="8">
         <v>0.29310000000000003</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
+        <v>1.022411</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1.281498</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="9">
         <v>0.10299999999999999</v>
       </c>
-      <c r="K18" s="9">
+      <c r="N18" s="9">
         <v>10.164999999999999</v>
       </c>
-      <c r="L18" s="9">
+      <c r="O18" s="9">
         <v>20.5</v>
       </c>
-      <c r="M18" s="9">
+      <c r="P18" s="9">
         <v>88.1</v>
       </c>
-      <c r="N18" s="9">
+      <c r="Q18" s="9">
         <v>23.2</v>
       </c>
-      <c r="O18" s="9">
+      <c r="R18" s="9">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:22">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
@@ -1603,87 +1651,87 @@
       <c r="C19" s="3">
         <v>137219</v>
       </c>
-      <c r="I19" s="3">
+      <c r="L19" s="3">
         <v>25</v>
       </c>
-      <c r="J19" s="3">
+      <c r="M19" s="3">
         <v>0.25900000000000001</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>0.995</v>
       </c>
-      <c r="L19" s="3">
+      <c r="O19" s="3">
         <v>39.5</v>
       </c>
-      <c r="M19" s="3">
+      <c r="P19" s="3">
         <v>57.1</v>
       </c>
-      <c r="N19" s="7">
+      <c r="Q19" s="7">
         <v>44.3</v>
       </c>
-      <c r="O19" s="7">
+      <c r="R19" s="7">
         <v>65.900000000000006</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="S19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="3">
+        <v>25</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3.262</v>
+      </c>
+      <c r="O20" s="3">
+        <v>42.4</v>
+      </c>
+      <c r="P20" s="3">
+        <v>84.7</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="R20" s="7">
+        <v>93.1</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="3">
-        <v>25</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3.262</v>
-      </c>
-      <c r="L20" s="3">
-        <v>42.4</v>
-      </c>
-      <c r="M20" s="3">
-        <v>84.7</v>
-      </c>
-      <c r="N20" s="7">
-        <v>48.2</v>
-      </c>
-      <c r="O20" s="7">
-        <v>93.1</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="8" customFormat="1">
+      <c r="U20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="8" customFormat="1">
       <c r="A21" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="9">
         <v>4</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="8">
         <v>2.4577000000000002E-3</v>
@@ -1700,31 +1748,37 @@
       <c r="H21" s="8">
         <v>7.1080000000000004E-2</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
+        <v>1.0037039999999999</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.4383185</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="9">
         <v>0.25900000000000001</v>
       </c>
-      <c r="K21" s="9">
+      <c r="N21" s="9">
         <v>3.262</v>
       </c>
-      <c r="L21" s="9">
+      <c r="O21" s="9">
         <v>39.5</v>
       </c>
-      <c r="M21" s="9">
+      <c r="P21" s="9">
         <v>84.7</v>
       </c>
-      <c r="N21" s="9">
+      <c r="Q21" s="9">
         <v>44.3</v>
       </c>
-      <c r="O21" s="9">
+      <c r="R21" s="9">
         <v>93.1</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:22">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
@@ -1732,43 +1786,43 @@
       <c r="C22" s="3">
         <v>139655</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>36</v>
       </c>
-      <c r="J22" s="12">
+      <c r="M22" s="12">
         <v>1.423</v>
       </c>
-      <c r="K22" s="12">
+      <c r="N22" s="12">
         <v>6.16</v>
       </c>
-      <c r="L22" s="12">
+      <c r="O22" s="12">
         <v>38.200000000000003</v>
       </c>
-      <c r="M22" s="12">
+      <c r="P22" s="12">
         <v>64.7</v>
       </c>
-      <c r="N22" s="12">
+      <c r="Q22" s="12">
         <v>47.7</v>
       </c>
-      <c r="O22" s="12">
+      <c r="R22" s="12">
         <v>76.8</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="S22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="8" customFormat="1">
+    </row>
+    <row r="23" spans="1:22" s="8" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="8">
         <v>2.3411999999999999E-2</v>
@@ -1785,31 +1839,37 @@
       <c r="H23" s="8">
         <v>0.16750000000000001</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
+        <v>1.0012890000000001</v>
+      </c>
+      <c r="K23" s="8">
+        <v>2.274273</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="9">
         <v>1.423</v>
       </c>
-      <c r="K23" s="9">
+      <c r="N23" s="9">
         <v>6.16</v>
       </c>
-      <c r="L23" s="9">
+      <c r="O23" s="9">
         <v>38.200000000000003</v>
       </c>
-      <c r="M23" s="9">
+      <c r="P23" s="9">
         <v>64.7</v>
       </c>
-      <c r="N23" s="9">
+      <c r="Q23" s="9">
         <v>47.7</v>
       </c>
-      <c r="O23" s="9">
+      <c r="R23" s="9">
         <v>76.8</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:22">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="3">
         <v>6</v>
@@ -1817,40 +1877,40 @@
       <c r="C24" s="3">
         <v>180120</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>32</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>0.111</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>7.1029999999999998</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>17.8</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>62.5</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>20.9</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>80</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="S24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3">
         <v>6</v>
@@ -1858,47 +1918,47 @@
       <c r="C25" s="3">
         <v>180127</v>
       </c>
-      <c r="I25" s="3">
+      <c r="L25" s="3">
         <v>15</v>
       </c>
-      <c r="J25" s="3">
+      <c r="M25" s="3">
         <v>1.8520000000000001</v>
       </c>
-      <c r="K25" s="3">
+      <c r="N25" s="3">
         <v>9.6660000000000004</v>
       </c>
-      <c r="L25" s="3">
+      <c r="O25" s="3">
         <v>46.6</v>
       </c>
-      <c r="M25" s="3">
+      <c r="P25" s="3">
         <v>74.7</v>
       </c>
-      <c r="N25" s="3">
+      <c r="Q25" s="3">
         <v>57.8</v>
       </c>
-      <c r="O25" s="3">
+      <c r="R25" s="3">
         <v>96.9</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" s="3"/>
-    </row>
-    <row r="26" spans="1:19" s="8" customFormat="1">
+      <c r="S25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="1:22" s="8" customFormat="1">
       <c r="A26" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="9">
         <v>6</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8">
         <v>3.1066E-2</v>
@@ -1915,34 +1975,40 @@
       <c r="H26" s="8">
         <v>0.623</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
+        <v>0.91794089999999995</v>
+      </c>
+      <c r="K26" s="8">
+        <v>2.538351</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="9">
         <v>0.111</v>
       </c>
-      <c r="K26" s="9">
+      <c r="N26" s="9">
         <v>9.6660000000000004</v>
       </c>
-      <c r="L26" s="9">
+      <c r="O26" s="9">
         <v>1.78</v>
       </c>
-      <c r="M26" s="9">
+      <c r="P26" s="9">
         <v>74.7</v>
       </c>
-      <c r="N26" s="9">
+      <c r="Q26" s="9">
         <v>2.09</v>
       </c>
-      <c r="O26" s="9">
+      <c r="R26" s="9">
         <v>8.17</v>
       </c>
-      <c r="S26" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="V26" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3">
         <v>7</v>
@@ -1950,46 +2016,46 @@
       <c r="C27" s="3">
         <v>184189</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>27</v>
       </c>
-      <c r="J27" s="12">
+      <c r="M27" s="12">
         <v>0.29880000000000001</v>
       </c>
-      <c r="K27" s="12">
+      <c r="N27" s="12">
         <v>1.726</v>
       </c>
-      <c r="L27" s="12">
+      <c r="O27" s="12">
         <v>55.7</v>
       </c>
-      <c r="M27" s="12">
+      <c r="P27" s="12">
         <v>95.4</v>
       </c>
-      <c r="N27" s="12">
+      <c r="Q27" s="12">
         <v>69.400000000000006</v>
       </c>
-      <c r="O27" s="12">
+      <c r="R27" s="12">
         <v>119.7</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="8" customFormat="1">
+      <c r="S27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="8" customFormat="1">
       <c r="A28" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="9">
         <v>7</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8">
         <v>1.2192E-2</v>
@@ -2006,31 +2072,37 @@
       <c r="H28" s="8">
         <v>0.4723</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
+        <v>1.0000579999999999</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1.843529</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="9">
         <v>0.29880000000000001</v>
       </c>
-      <c r="K28" s="9">
+      <c r="N28" s="9">
         <v>1.726</v>
       </c>
-      <c r="L28" s="9">
+      <c r="O28" s="9">
         <v>55.7</v>
       </c>
-      <c r="M28" s="9">
+      <c r="P28" s="9">
         <v>95.4</v>
       </c>
-      <c r="N28" s="9">
+      <c r="Q28" s="9">
         <v>69.400000000000006</v>
       </c>
-      <c r="O28" s="9">
+      <c r="R28" s="9">
         <v>119.7</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:22">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
@@ -2038,40 +2110,40 @@
       <c r="C29" s="3">
         <v>138978</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>38</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>0.21099999999999999</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>1.4319999999999999</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>29.6</v>
       </c>
-      <c r="M29">
+      <c r="P29">
         <v>54.7</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>32.9</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>63.5</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="S29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
@@ -2079,40 +2151,40 @@
       <c r="C30" s="4">
         <v>138979</v>
       </c>
-      <c r="I30" s="3">
+      <c r="L30" s="3">
         <v>28</v>
       </c>
-      <c r="J30" s="3">
+      <c r="M30" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="K30" s="3">
+      <c r="N30" s="3">
         <v>1.6459999999999999</v>
       </c>
-      <c r="L30" s="3">
+      <c r="O30" s="3">
         <v>33.5</v>
       </c>
-      <c r="M30" s="3">
+      <c r="P30" s="3">
         <v>52.3</v>
       </c>
-      <c r="N30" s="3">
+      <c r="Q30" s="3">
         <v>38.1</v>
       </c>
-      <c r="O30" s="3">
+      <c r="R30" s="3">
         <v>59</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="S30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="7">
         <v>8</v>
@@ -2120,40 +2192,40 @@
       <c r="C31" s="3">
         <v>150772</v>
       </c>
-      <c r="I31" s="3">
+      <c r="L31" s="3">
         <v>26</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>9.4E-2</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>17.600000000000001</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>23.2</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>18.899999999999999</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <v>27.9</v>
       </c>
-      <c r="P31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="S31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="7">
         <v>8</v>
@@ -2161,46 +2233,46 @@
       <c r="C32" s="3">
         <v>138969</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>32</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>0.30499999999999999</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>1.87</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>31</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>55.2</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <v>34.200000000000003</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>62</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="8" customFormat="1">
+      <c r="S32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="8" customFormat="1">
       <c r="A33" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" s="10">
         <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33" s="11">
         <v>7.9120000000000006E-3</v>
@@ -2217,31 +2289,37 @@
       <c r="H33" s="8">
         <v>0.1009</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
+        <v>0.9733541</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0.95143739999999999</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33" s="9">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K33" s="9">
+      <c r="N33" s="9">
         <v>1.87</v>
       </c>
-      <c r="L33" s="9">
+      <c r="O33" s="9">
         <v>17.600000000000001</v>
       </c>
-      <c r="M33" s="9">
+      <c r="P33" s="9">
         <v>55.2</v>
       </c>
-      <c r="N33" s="9">
+      <c r="Q33" s="9">
         <v>18.899999999999999</v>
       </c>
-      <c r="O33" s="9">
+      <c r="R33" s="9">
         <v>63.5</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:21">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="3">
         <v>9</v>
@@ -2249,40 +2327,40 @@
       <c r="C34" s="3">
         <v>138930</v>
       </c>
-      <c r="I34" s="3">
+      <c r="L34" s="3">
         <v>42</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>0.20399999999999999</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>1.7490000000000001</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>32.5</v>
       </c>
-      <c r="M34">
+      <c r="P34">
         <v>60.3</v>
       </c>
-      <c r="N34">
+      <c r="Q34">
         <v>35.200000000000003</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <v>67.3</v>
       </c>
-      <c r="P34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="7">
         <v>9</v>
@@ -2290,46 +2368,46 @@
       <c r="C35" s="3">
         <v>120834</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>26</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>0.08</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>0.42899999999999999</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>23.1</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>41.1</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <v>25</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <v>44.2</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="8" customFormat="1">
+      <c r="S35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="8" customFormat="1">
       <c r="A36" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="10">
         <v>9</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="11">
         <v>5.9858000000000003E-3</v>
@@ -2346,31 +2424,37 @@
       <c r="H36" s="8">
         <v>6.4269999999999994E-2</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
+        <v>1.0039480000000001</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0.74989059999999996</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" s="9">
         <v>0.08</v>
       </c>
-      <c r="K36" s="9">
+      <c r="N36" s="9">
         <v>1.7490000000000001</v>
       </c>
-      <c r="L36" s="9">
+      <c r="O36" s="9">
         <v>23.1</v>
       </c>
-      <c r="M36" s="9">
+      <c r="P36" s="9">
         <v>60.3</v>
       </c>
-      <c r="N36" s="9">
+      <c r="Q36" s="9">
         <v>25</v>
       </c>
-      <c r="O36" s="9">
+      <c r="R36" s="9">
         <v>67.3</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:21">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="7">
         <v>10</v>
@@ -2378,40 +2462,40 @@
       <c r="C37" s="3">
         <v>136752</v>
       </c>
-      <c r="I37" s="3">
+      <c r="L37" s="3">
         <v>23</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>1.288</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>7.2430000000000003</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>52</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>93.7</v>
       </c>
-      <c r="N37">
+      <c r="Q37">
         <v>58</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>103.7</v>
       </c>
-      <c r="P37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" s="7">
         <v>10</v>
@@ -2419,72 +2503,93 @@
       <c r="C38" s="3">
         <v>136726</v>
       </c>
-      <c r="I38" s="3">
+      <c r="L38" s="3">
         <v>25</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>0.442</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>7.1440000000000001</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>35.799999999999997</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <v>72.2</v>
       </c>
-      <c r="N38">
+      <c r="Q38">
         <v>39.9</v>
       </c>
-      <c r="O38">
+      <c r="R38">
         <v>80.599999999999994</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="S38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U38" t="s">
         <v>98</v>
       </c>
-      <c r="Q38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="15" customFormat="1">
+    </row>
+    <row r="39" spans="1:21" s="15" customFormat="1">
       <c r="A39" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" s="14">
         <v>10</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>118</v>
+        <v>82</v>
+      </c>
+      <c r="D39" s="15">
+        <v>2.1097000000000001E-2</v>
+      </c>
+      <c r="E39" s="15">
+        <v>6.3410000000000003E-3</v>
+      </c>
+      <c r="F39" s="15">
+        <v>2.6488779999999998</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0.149201</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0.59870000000000001</v>
       </c>
       <c r="J39" s="15">
+        <v>0.96820879999999998</v>
+      </c>
+      <c r="K39" s="15">
+        <v>1.0676779999999999</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="15">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="K39" s="15">
+      <c r="N39" s="15">
         <v>7.2430000000000003</v>
       </c>
-      <c r="L39" s="15">
+      <c r="O39" s="15">
         <v>35.799999999999997</v>
       </c>
-      <c r="M39" s="15">
+      <c r="P39" s="15">
         <v>93.7</v>
       </c>
-      <c r="N39" s="15">
+      <c r="Q39" s="15">
         <v>39.9</v>
       </c>
-      <c r="O39" s="15">
+      <c r="R39" s="15">
         <v>103.7</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:21">
       <c r="A40" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" s="7">
         <v>11</v>
@@ -2492,40 +2597,40 @@
       <c r="C40" s="3">
         <v>149423</v>
       </c>
-      <c r="I40">
+      <c r="L40">
         <v>1</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>2.548</v>
       </c>
-      <c r="K40" t="s">
-        <v>94</v>
-      </c>
-      <c r="L40">
+      <c r="N40" t="s">
+        <v>92</v>
+      </c>
+      <c r="O40">
         <v>50.2</v>
       </c>
-      <c r="M40" t="s">
-        <v>94</v>
-      </c>
-      <c r="N40">
+      <c r="P40" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q40">
         <v>62</v>
       </c>
-      <c r="O40" t="s">
-        <v>94</v>
-      </c>
-      <c r="P40" s="3" t="s">
+      <c r="R40" t="s">
+        <v>92</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U40" t="s">
         <v>110</v>
       </c>
-      <c r="Q40" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="7">
         <v>11</v>
@@ -2533,40 +2638,40 @@
       <c r="C41" s="3">
         <v>149427</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>2</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>0.54700000000000004</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>0.82899999999999996</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>30.9</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <v>35</v>
       </c>
-      <c r="N41">
+      <c r="Q41">
         <v>39.5</v>
       </c>
-      <c r="O41">
+      <c r="R41">
         <v>44.3</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="S41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T41" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="U41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="7">
         <v>11</v>
@@ -2574,72 +2679,93 @@
       <c r="C42" s="3">
         <v>149429</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>8</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>0.224</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>19.100000000000001</v>
       </c>
-      <c r="M42">
+      <c r="P42">
         <v>23</v>
       </c>
-      <c r="N42">
+      <c r="Q42">
         <v>21.7</v>
       </c>
-      <c r="O42">
+      <c r="R42">
         <v>27.8</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="R42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="15" customFormat="1">
+      <c r="S42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="U42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="15" customFormat="1">
       <c r="A43" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="15">
         <v>11</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="D43" s="15">
+        <v>2.1097000000000001E-2</v>
+      </c>
+      <c r="E43" s="15">
+        <v>6.3410000000000003E-3</v>
+      </c>
+      <c r="F43" s="15">
+        <v>2.6488779999999998</v>
+      </c>
+      <c r="G43" s="18">
+        <v>3.5071900000000003E-2</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="J43" s="15">
+        <v>0.95925839999999996</v>
+      </c>
+      <c r="K43" s="15">
+        <v>1.6989240000000001</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M43" s="15">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="K43" s="15">
+      <c r="N43" s="15">
         <v>2.548</v>
       </c>
-      <c r="L43" s="15">
+      <c r="O43" s="15">
         <v>19.100000000000001</v>
       </c>
-      <c r="M43" s="15">
+      <c r="P43" s="15">
         <v>50.2</v>
       </c>
-      <c r="N43" s="15">
+      <c r="Q43" s="15">
         <v>21.7</v>
       </c>
-      <c r="O43" s="15">
+      <c r="R43" s="15">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:21">
       <c r="A44" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="7">
         <v>12</v>
@@ -2647,40 +2773,40 @@
       <c r="C44" s="3">
         <v>136831</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <v>37</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>2.4649999999999999</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>23</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>54.4</v>
       </c>
-      <c r="N44">
+      <c r="Q44">
         <v>25.9</v>
       </c>
-      <c r="O44">
+      <c r="R44">
         <v>64.5</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="17" customFormat="1">
+      <c r="S44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="17" customFormat="1">
       <c r="A45" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" s="16">
         <v>12</v>
@@ -2688,40 +2814,40 @@
       <c r="C45" s="12">
         <v>136846</v>
       </c>
-      <c r="I45" s="17">
+      <c r="L45" s="17">
         <v>4</v>
       </c>
-      <c r="J45" s="17">
+      <c r="M45" s="17">
         <v>0.93200000000000005</v>
       </c>
-      <c r="K45" s="17">
+      <c r="N45" s="17">
         <v>1.6719999999999999</v>
       </c>
-      <c r="L45" s="17">
+      <c r="O45" s="17">
         <v>43.8</v>
       </c>
-      <c r="M45" s="17">
+      <c r="P45" s="17">
         <v>49.1</v>
       </c>
-      <c r="N45" s="17">
+      <c r="Q45" s="17">
         <v>51</v>
       </c>
-      <c r="O45" s="17">
+      <c r="R45" s="17">
         <v>58.3</v>
       </c>
-      <c r="P45" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="R45" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U45" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="7">
         <v>12</v>
@@ -2729,40 +2855,40 @@
       <c r="C46" s="3">
         <v>136827</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <v>6</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>0.10100000000000001</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>1.2250000000000001</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>22.9</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <v>45</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
         <v>24.9</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>52.2</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" s="7">
         <v>12</v>
@@ -2770,40 +2896,40 @@
       <c r="C47" s="3">
         <v>136851</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <v>17</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>0.376</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>1.9319999999999999</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>30.4</v>
       </c>
-      <c r="M47">
+      <c r="P47">
         <v>51</v>
       </c>
-      <c r="N47">
+      <c r="Q47">
         <v>37.1</v>
       </c>
-      <c r="O47">
+      <c r="R47">
         <v>60.1</v>
       </c>
-      <c r="P47" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>102</v>
-      </c>
-      <c r="R47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" t="s">
+        <v>99</v>
+      </c>
+      <c r="T47" t="s">
+        <v>100</v>
+      </c>
+      <c r="U47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B48" s="7">
         <v>12</v>
@@ -2811,67 +2937,237 @@
       <c r="C48" s="3">
         <v>136813</v>
       </c>
-      <c r="I48">
+      <c r="L48">
         <v>61</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>0.64200000000000002</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>4.6710000000000003</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <v>39.4</v>
       </c>
-      <c r="M48">
+      <c r="P48">
         <v>70.599999999999994</v>
       </c>
-      <c r="N48">
+      <c r="Q48">
         <v>44.7</v>
       </c>
-      <c r="O48">
+      <c r="R48">
         <v>83.6</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="R48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="15" customFormat="1">
+      <c r="S48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="15" customFormat="1">
       <c r="A49" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B49" s="14">
         <v>12</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I49" s="15" t="s">
+      <c r="C49" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="15">
+        <v>9.7447999999999996E-3</v>
+      </c>
+      <c r="E49" s="15">
+        <v>8.6740000000000005E-4</v>
+      </c>
+      <c r="F49" s="15">
+        <v>3.1910590000000001</v>
+      </c>
+      <c r="G49" s="15">
+        <v>5.0341900000000002E-2</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0.97843930000000001</v>
+      </c>
+      <c r="K49" s="15">
+        <v>1.281498</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" s="15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="N49" s="15">
+        <v>4.6710000000000003</v>
+      </c>
+      <c r="O49" s="15">
+        <v>22.9</v>
+      </c>
+      <c r="P49" s="15">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>24.9</v>
+      </c>
+      <c r="R49" s="15">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J49" s="15">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="K49" s="15">
-        <v>4.6710000000000003</v>
-      </c>
-      <c r="L49" s="15">
-        <v>22.9</v>
-      </c>
-      <c r="M49" s="15">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="N49" s="15">
-        <v>24.9</v>
-      </c>
-      <c r="O49" s="15">
-        <v>83.6</v>
+      <c r="B50" s="7">
+        <v>13</v>
+      </c>
+      <c r="C50" s="7">
+        <v>136807</v>
+      </c>
+      <c r="L50">
+        <v>72</v>
+      </c>
+      <c r="M50">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="N50">
+        <v>1.738</v>
+      </c>
+      <c r="O50">
+        <v>29</v>
+      </c>
+      <c r="P50">
+        <v>50.2</v>
+      </c>
+      <c r="Q50">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="R50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="7">
+        <v>13</v>
+      </c>
+      <c r="C51" s="7">
+        <v>136804</v>
+      </c>
+      <c r="L51">
+        <v>29</v>
+      </c>
+      <c r="M51">
+        <v>0.496</v>
+      </c>
+      <c r="N51">
+        <v>9.2780000000000005</v>
+      </c>
+      <c r="O51">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="P51">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="Q51">
+        <v>39.9</v>
+      </c>
+      <c r="R51">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>136818</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="N52">
+        <v>3.234</v>
+      </c>
+      <c r="O52">
+        <v>23.6</v>
+      </c>
+      <c r="P52">
+        <v>55.6</v>
+      </c>
+      <c r="Q52">
+        <v>25.7</v>
+      </c>
+      <c r="R52">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="8" customFormat="1">
+      <c r="A53" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="8">
+        <v>13</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="8">
+        <v>5.9858999999999997E-3</v>
+      </c>
+      <c r="E53" s="8">
+        <v>5.687E-4</v>
+      </c>
+      <c r="F53" s="8">
+        <v>3.5772217999999998</v>
+      </c>
+      <c r="G53" s="8">
+        <v>5.0386399999999998E-2</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.24229999999999999</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0.96379769999999998</v>
+      </c>
+      <c r="K53" s="8">
+        <v>1.368512</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M53" s="8">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="N53" s="8">
+        <v>9.2780000000000005</v>
+      </c>
+      <c r="O53" s="8">
+        <v>23.6</v>
+      </c>
+      <c r="P53" s="8">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>25.7</v>
+      </c>
+      <c r="R53" s="8">
+        <v>96.1</v>
       </c>
     </row>
   </sheetData>
